--- a/iselUssSyncV2/OutputWSL/20220428_1314_D50L474W90Q35.0U0.44H101G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1314_D50L474W90Q35.0U0.44H101G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>101.01488095238095</v>
+        <v>101.01581171940191</v>
       </c>
       <c r="F2" s="0">
-        <v>101.3822619047619</v>
+        <v>101.38319267178294</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>101.45797619047622</v>
+        <v>101.4602513987497</v>
       </c>
       <c r="F3" s="0">
-        <v>103.06289682539679</v>
+        <v>103.06517203367027</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>100.33646825396832</v>
+        <v>100.33921918760801</v>
       </c>
       <c r="F4" s="0">
-        <v>104.975119047619</v>
+        <v>104.97786998125869</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>99.532430278884434</v>
+        <v>99.535236369088366</v>
       </c>
       <c r="F5" s="0">
-        <v>105.64398406374511</v>
+        <v>105.64679015394911</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>98.148769841269825</v>
+        <v>98.151624193467455</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>95.676175298804779</v>
+        <v>95.679071018425574</v>
       </c>
       <c r="F7" s="0">
-        <v>105.6528286852589</v>
+        <v>105.65572440487975</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>90.988406374502034</v>
+        <v>90.991336566975463</v>
       </c>
       <c r="F8" s="0">
-        <v>100.1543426294821</v>
+        <v>100.15727282195546</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>88.138055555555525</v>
+        <v>88.140997606690277</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -278,7 +278,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>85.332988047808726</v>
+        <v>85.33594085447352</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -296,7 +296,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>81.692460317460302</v>
+        <v>81.695422776523799</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -314,7 +314,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>80.050796812748999</v>
+        <v>80.053763684337596</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -332,7 +332,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>78.358412698412693</v>
+        <v>78.361383706743609</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -350,7 +350,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>76.35289682539684</v>
+        <v>76.355871694687281</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -368,7 +368,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>74.695338645418317</v>
+        <v>74.698317099885443</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -386,7 +386,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>70.929601593625492</v>
+        <v>70.932586391097487</v>
       </c>
       <c r="F16" s="0"/>
     </row>
@@ -404,10 +404,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>67.181434262948216</v>
+        <v>67.184424300293813</v>
       </c>
       <c r="F17" s="0">
-        <v>34.752191235059755</v>
+        <v>34.755181272405352</v>
       </c>
     </row>
     <row r="18">
@@ -424,10 +424,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>64.090833333333322</v>
+        <v>64.093827507421238</v>
       </c>
       <c r="F18" s="0">
-        <v>33.352023809523807</v>
+        <v>33.355017983611717</v>
       </c>
     </row>
     <row r="19">
@@ -444,10 +444,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>58.073333333333309</v>
+        <v>58.076332471512039</v>
       </c>
       <c r="F19" s="0">
-        <v>33.941547619047618</v>
+        <v>33.944546757226306</v>
       </c>
     </row>
     <row r="20">
@@ -464,10 +464,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>51.712142857142872</v>
+        <v>51.715141995321524</v>
       </c>
       <c r="F20" s="0">
-        <v>36.171388888888885</v>
+        <v>36.174388027067572</v>
       </c>
     </row>
     <row r="21">
@@ -484,10 +484,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>46.300119521912357</v>
+        <v>46.303111765520498</v>
       </c>
       <c r="F21" s="0">
-        <v>40.938486055776899</v>
+        <v>40.941478299385061</v>
       </c>
     </row>
     <row r="22">
@@ -504,10 +504,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>42.070876494023906</v>
+        <v>42.073854948491018</v>
       </c>
       <c r="F22" s="0">
-        <v>54.437490039840633</v>
+        <v>54.440468494307737</v>
       </c>
     </row>
     <row r="23">
@@ -524,10 +524,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>38.952788844621523</v>
+        <v>38.955746615377052</v>
       </c>
       <c r="F23" s="0">
-        <v>71.751992031872504</v>
+        <v>71.754949802628047</v>
       </c>
     </row>
     <row r="24">
@@ -544,10 +544,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>36.393888888888895</v>
+        <v>36.396784608509698</v>
       </c>
       <c r="F24" s="0">
-        <v>70.454166666666652</v>
+        <v>70.457062386287475</v>
       </c>
     </row>
     <row r="25">
@@ -564,10 +564,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>39.562380952380956</v>
+        <v>39.565187042584903</v>
       </c>
       <c r="F25" s="0">
-        <v>52.679920634920634</v>
+        <v>52.682726725124603</v>
       </c>
     </row>
     <row r="26">
@@ -584,10 +584,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>56.572390438247005</v>
+        <v>56.575079320752032</v>
       </c>
       <c r="F26" s="0">
-        <v>50.88609561752989</v>
+        <v>50.888784500034916</v>
       </c>
     </row>
     <row r="27">
@@ -604,10 +604,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>77.408452380952369</v>
+        <v>77.410996477476374</v>
       </c>
       <c r="F27" s="0">
-        <v>51.593293650793655</v>
+        <v>51.595837747317638</v>
       </c>
     </row>
     <row r="28">
@@ -624,10 +624,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>51.928446215139452</v>
+        <v>51.930817947400293</v>
       </c>
       <c r="F28" s="0">
-        <v>53.534820717131481</v>
+        <v>53.537192449392322</v>
       </c>
     </row>
     <row r="29">
@@ -644,10 +644,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>50.151230158730144</v>
+        <v>50.15340194844574</v>
       </c>
       <c r="F29" s="0">
-        <v>67.166349206349196</v>
+        <v>67.168520996064814</v>
       </c>
     </row>
     <row r="30">
@@ -664,10 +664,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>73.241115537848628</v>
+        <v>73.242804707627414</v>
       </c>
       <c r="F30" s="0">
-        <v>57.742788844621515</v>
+        <v>57.744478014400329</v>
       </c>
     </row>
   </sheetData>
